--- a/Document/강동민/기획서/미션 UI 기획서.xlsx
+++ b/Document/강동민/기획서/미션 UI 기획서.xlsx
@@ -383,10 +383,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>뒷배경 없이 텍스트만 사용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터형</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -432,6 +428,10 @@
   </si>
   <si>
     <t>미션 선택창 레이아웃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒷배경 은 반투명으로</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -712,10 +712,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -909,15 +909,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -926,8 +926,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4314824" y="2771776"/>
-          <a:ext cx="4629151" cy="628650"/>
+          <a:off x="4848224" y="1828801"/>
+          <a:ext cx="4810126" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -966,27 +966,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2679</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="직선 연결선 30"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="34" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8943975" y="3086101"/>
-          <a:ext cx="3857625" cy="57149"/>
+          <a:off x="9658350" y="2143126"/>
+          <a:ext cx="3906931" cy="1259978"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4458,10 +4459,10 @@
         <v>43664</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -4583,8 +4584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U48" sqref="U48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5456,13 +5457,13 @@
       <c r="O60" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="P60" s="28" t="s">
+      <c r="P60" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="27"/>
       <c r="U60" s="24" t="s">
         <v>79</v>
       </c>
@@ -5494,22 +5495,22 @@
       <c r="U62" s="6"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="28"/>
+      <c r="D67" s="27"/>
       <c r="E67" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
       <c r="K67" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>30</v>
@@ -5531,7 +5532,7 @@
       <c r="I68" s="26"/>
       <c r="J68" s="26"/>
       <c r="K68" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L68" s="6"/>
     </row>
@@ -5551,7 +5552,7 @@
       <c r="I69" s="26"/>
       <c r="J69" s="26"/>
       <c r="K69" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L69" s="6"/>
     </row>
@@ -5571,7 +5572,7 @@
       <c r="I70" s="26"/>
       <c r="J70" s="26"/>
       <c r="K70" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L70" s="6"/>
     </row>
@@ -5591,7 +5592,7 @@
       <c r="I71" s="26"/>
       <c r="J71" s="26"/>
       <c r="K71" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L71" s="6"/>
     </row>
@@ -5611,7 +5612,7 @@
       <c r="I72" s="26"/>
       <c r="J72" s="26"/>
       <c r="K72" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L72" s="6"/>
     </row>
@@ -5621,28 +5622,28 @@
       </c>
     </row>
     <row r="81" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="28"/>
+      <c r="D81" s="27"/>
       <c r="E81" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F81" s="28" t="s">
+      <c r="F81" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
       <c r="K81" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="L81" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="L81" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
     </row>
     <row r="82" spans="3:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="26">
@@ -5660,10 +5661,10 @@
       <c r="I82" s="26"/>
       <c r="J82" s="26"/>
       <c r="K82" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L82" s="26" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="M82" s="26"/>
       <c r="N82" s="26"/>
@@ -5674,22 +5675,22 @@
       </c>
     </row>
     <row r="101" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C101" s="27" t="s">
+      <c r="C101" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D101" s="28"/>
+      <c r="D101" s="27"/>
       <c r="E101" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F101" s="28" t="s">
+      <c r="F101" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
       <c r="K101" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L101" s="20" t="s">
         <v>42</v>
@@ -5711,7 +5712,7 @@
       <c r="I102" s="26"/>
       <c r="J102" s="26"/>
       <c r="K102" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L102" s="18"/>
     </row>
@@ -5731,7 +5732,7 @@
       <c r="I103" s="26"/>
       <c r="J103" s="26"/>
       <c r="K103" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L103" s="18"/>
     </row>
@@ -5741,22 +5742,22 @@
       </c>
     </row>
     <row r="121" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C121" s="27" t="s">
+      <c r="C121" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D121" s="28"/>
+      <c r="D121" s="27"/>
       <c r="E121" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F121" s="28" t="s">
+      <c r="F121" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="28"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="27"/>
       <c r="K121" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L121" s="20" t="s">
         <v>30</v>
@@ -5778,7 +5779,7 @@
       <c r="I122" s="26"/>
       <c r="J122" s="26"/>
       <c r="K122" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L122" s="18"/>
     </row>
@@ -5798,7 +5799,7 @@
       <c r="I123" s="26"/>
       <c r="J123" s="26"/>
       <c r="K123" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L123" s="18"/>
     </row>
@@ -5818,7 +5819,7 @@
       <c r="I124" s="26"/>
       <c r="J124" s="26"/>
       <c r="K124" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L124" s="18"/>
     </row>
@@ -5838,7 +5839,7 @@
       <c r="I125" s="26"/>
       <c r="J125" s="26"/>
       <c r="K125" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L125" s="18"/>
     </row>
@@ -5858,7 +5859,7 @@
       <c r="I126" s="26"/>
       <c r="J126" s="26"/>
       <c r="K126" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L126" s="18"/>
     </row>
@@ -5868,22 +5869,47 @@
       </c>
       <c r="D127" s="26"/>
       <c r="E127" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F127" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="F127" s="26" t="s">
-        <v>94</v>
       </c>
       <c r="G127" s="26"/>
       <c r="H127" s="26"/>
       <c r="I127" s="26"/>
       <c r="J127" s="26"/>
       <c r="K127" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L127" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="F124:J124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="F126:J126"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="F121:J121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="F122:J122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="F123:J123"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="F102:J102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="F103:J103"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:J72"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="F127:J127"/>
     <mergeCell ref="L81:N81"/>
@@ -5900,31 +5926,6 @@
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="F70:J70"/>
     <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="F102:J102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="F103:J103"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="F121:J121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="F122:J122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="F123:J123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="F124:J124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="F126:J126"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/강동민/기획서/미션 UI 기획서.xlsx
+++ b/Document/강동민/기획서/미션 UI 기획서.xlsx
@@ -699,10 +699,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4455,8 +4455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5328,13 +5328,13 @@
       <c r="O60" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="P60" s="28" t="s">
+      <c r="P60" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="28"/>
-      <c r="T60" s="28"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
       <c r="U60" s="24" t="s">
         <v>69</v>
       </c>
@@ -5366,20 +5366,20 @@
       <c r="U62" s="6"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="28"/>
+      <c r="D67" s="29"/>
       <c r="E67" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
       <c r="K67" s="19" t="s">
         <v>72</v>
       </c>
@@ -5473,28 +5473,28 @@
       </c>
     </row>
     <row r="81" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="28"/>
+      <c r="D81" s="29"/>
       <c r="E81" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F81" s="28" t="s">
+      <c r="F81" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
       <c r="K81" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="L81" s="28" t="s">
+      <c r="L81" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
     </row>
     <row r="82" spans="3:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="27">
@@ -5526,20 +5526,20 @@
       </c>
     </row>
     <row r="101" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D101" s="28"/>
+      <c r="D101" s="29"/>
       <c r="E101" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F101" s="28" t="s">
+      <c r="F101" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
       <c r="K101" s="22" t="s">
         <v>72</v>
       </c>
@@ -5593,20 +5593,20 @@
       </c>
     </row>
     <row r="121" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C121" s="29" t="s">
+      <c r="C121" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D121" s="28"/>
+      <c r="D121" s="29"/>
       <c r="E121" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F121" s="28" t="s">
+      <c r="F121" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="28"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
       <c r="K121" s="22" t="s">
         <v>72</v>
       </c>
@@ -5736,29 +5736,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="F124:J124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="F125:J125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="F126:J126"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="F121:J121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="F122:J122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="F123:J123"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="F102:J102"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="F103:J103"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:J71"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="F127:J127"/>
     <mergeCell ref="L81:N81"/>
@@ -5775,6 +5752,29 @@
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="F70:J70"/>
     <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="F102:J102"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="F103:J103"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="F121:J121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="F122:J122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="F123:J123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="F124:J124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="F125:J125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="F126:J126"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
